--- a/analysis/tables.xlsx
+++ b/analysis/tables.xlsx
@@ -8,12 +8,13 @@
   <sheets>
     <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Sheet 2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Table 4" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -244,6 +245,243 @@
   </si>
   <si>
     <t xml:space="preserve">2017-09-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">F8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.95</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">NaN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.166</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00663</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0291</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.000628</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.464</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.186</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.516</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.597</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000839</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.508</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.66</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">668</t>
+  </si>
+  <si>
+    <t xml:space="preserve">548</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 650</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11 000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19 000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 900</t>
+  </si>
+  <si>
+    <t xml:space="preserve">54 000</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 300</t>
+  </si>
+  <si>
+    <t xml:space="preserve">864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">629</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 580</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 320</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 410</t>
+  </si>
+  <si>
+    <t xml:space="preserve">356</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14.4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">47.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">34</t>
+  </si>
+  <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sd.lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shi.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shi.max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">shi.min</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q.max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssc.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ssc.max</t>
+  </si>
+  <si>
+    <t xml:space="preserve">r.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl.pct</t>
   </si>
 </sst>
 </file>
@@ -873,4 +1111,307 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C3" t="s">
+        <v>82</v>
+      </c>
+      <c r="D3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C4" t="s">
+        <v>86</v>
+      </c>
+      <c r="D4" t="s">
+        <v>87</v>
+      </c>
+      <c r="E4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B5" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" t="s">
+        <v>90</v>
+      </c>
+      <c r="D5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E5" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>144</v>
+      </c>
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6" t="s">
+        <v>93</v>
+      </c>
+      <c r="D6" t="s">
+        <v>94</v>
+      </c>
+      <c r="E6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>145</v>
+      </c>
+      <c r="B7" t="s">
+        <v>95</v>
+      </c>
+      <c r="C7" t="s">
+        <v>96</v>
+      </c>
+      <c r="D7" t="s">
+        <v>97</v>
+      </c>
+      <c r="E7" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>146</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>147</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>148</v>
+      </c>
+      <c r="B10" t="s">
+        <v>107</v>
+      </c>
+      <c r="C10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D10" t="s">
+        <v>109</v>
+      </c>
+      <c r="E10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C11" t="s">
+        <v>112</v>
+      </c>
+      <c r="D11" t="s">
+        <v>113</v>
+      </c>
+      <c r="E11" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>150</v>
+      </c>
+      <c r="B12" t="s">
+        <v>115</v>
+      </c>
+      <c r="C12" t="s">
+        <v>116</v>
+      </c>
+      <c r="D12" t="s">
+        <v>117</v>
+      </c>
+      <c r="E12" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>151</v>
+      </c>
+      <c r="B13" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" t="s">
+        <v>121</v>
+      </c>
+      <c r="E13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s">
+        <v>152</v>
+      </c>
+      <c r="B14" t="s">
+        <v>123</v>
+      </c>
+      <c r="C14" t="s">
+        <v>124</v>
+      </c>
+      <c r="D14" t="s">
+        <v>125</v>
+      </c>
+      <c r="E14" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>153</v>
+      </c>
+      <c r="B15" t="s">
+        <v>127</v>
+      </c>
+      <c r="C15" t="s">
+        <v>128</v>
+      </c>
+      <c r="D15" t="s">
+        <v>129</v>
+      </c>
+      <c r="E15" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>154</v>
+      </c>
+      <c r="B16" t="s">
+        <v>131</v>
+      </c>
+      <c r="C16" t="s">
+        <v>132</v>
+      </c>
+      <c r="D16" t="s">
+        <v>133</v>
+      </c>
+      <c r="E16" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>155</v>
+      </c>
+      <c r="B17" t="s">
+        <v>135</v>
+      </c>
+      <c r="C17" t="s">
+        <v>136</v>
+      </c>
+      <c r="D17" t="s">
+        <v>137</v>
+      </c>
+      <c r="E17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>
--- a/analysis/tables.xlsx
+++ b/analysis/tables.xlsx
@@ -247,6 +247,9 @@
     <t xml:space="preserve">2017-09-19</t>
   </si>
   <si>
+    <t xml:space="preserve"/>
+  </si>
+  <si>
     <t xml:space="preserve">AW</t>
   </si>
   <si>
@@ -259,6 +262,12 @@
     <t xml:space="preserve">NA</t>
   </si>
   <si>
+    <t xml:space="preserve">type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">16</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t xml:space="preserve">29</t>
   </si>
   <si>
+    <t xml:space="preserve">n.pct</t>
+  </si>
+  <si>
     <t xml:space="preserve">11.8</t>
   </si>
   <si>
@@ -283,6 +295,9 @@
     <t xml:space="preserve">21.3</t>
   </si>
   <si>
+    <t xml:space="preserve">mean.duration</t>
+  </si>
+  <si>
     <t xml:space="preserve">19.3</t>
   </si>
   <si>
@@ -292,6 +307,9 @@
     <t xml:space="preserve">22.3</t>
   </si>
   <si>
+    <t xml:space="preserve">mean.lag</t>
+  </si>
+  <si>
     <t xml:space="preserve">-2.06</t>
   </si>
   <si>
@@ -301,6 +319,9 @@
     <t xml:space="preserve">-2.29</t>
   </si>
   <si>
+    <t xml:space="preserve">sd.lag</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.95</t>
   </si>
   <si>
@@ -313,6 +334,9 @@
     <t xml:space="preserve">NaN</t>
   </si>
   <si>
+    <t xml:space="preserve">shi.mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.166</t>
   </si>
   <si>
@@ -325,6 +349,9 @@
     <t xml:space="preserve">-0.0291</t>
   </si>
   <si>
+    <t xml:space="preserve">shi.max</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.000628</t>
   </si>
   <si>
@@ -337,6 +364,9 @@
     <t xml:space="preserve">0.516</t>
   </si>
   <si>
+    <t xml:space="preserve">shi.min</t>
+  </si>
+  <si>
     <t xml:space="preserve">-0.597</t>
   </si>
   <si>
@@ -349,6 +379,9 @@
     <t xml:space="preserve">-0.508</t>
   </si>
   <si>
+    <t xml:space="preserve">q.mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.65</t>
   </si>
   <si>
@@ -361,6 +394,9 @@
     <t xml:space="preserve">1.47</t>
   </si>
   <si>
+    <t xml:space="preserve">q.max</t>
+  </si>
+  <si>
     <t xml:space="preserve">3.2</t>
   </si>
   <si>
@@ -373,6 +409,9 @@
     <t xml:space="preserve">2.7</t>
   </si>
   <si>
+    <t xml:space="preserve">ssc.mean</t>
+  </si>
+  <si>
     <t xml:space="preserve">668</t>
   </si>
   <si>
@@ -385,6 +424,9 @@
     <t xml:space="preserve">2 650</t>
   </si>
   <si>
+    <t xml:space="preserve">ssc.max</t>
+  </si>
+  <si>
     <t xml:space="preserve">11 000</t>
   </si>
   <si>
@@ -397,16 +439,22 @@
     <t xml:space="preserve">54 000</t>
   </si>
   <si>
-    <t xml:space="preserve">1 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">864</t>
-  </si>
-  <si>
-    <t xml:space="preserve">629</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5 580</t>
+    <t xml:space="preserve">sl.mean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">82.8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sl</t>
   </si>
   <si>
     <t xml:space="preserve">1 320</t>
@@ -421,6 +469,9 @@
     <t xml:space="preserve">3 130</t>
   </si>
   <si>
+    <t xml:space="preserve">sl.pct</t>
+  </si>
+  <si>
     <t xml:space="preserve">14.4</t>
   </si>
   <si>
@@ -431,57 +482,6 @@
   </si>
   <si>
     <t xml:space="preserve">34</t>
-  </si>
-  <si>
-    <t xml:space="preserve"/>
-  </si>
-  <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.pct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sd.lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shi.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shi.max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">shi.min</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">q.max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssc.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ssc.max</t>
-  </si>
-  <si>
-    <t xml:space="preserve">r.mean</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sl</t>
-  </si>
-  <si>
-    <t xml:space="preserve">sl.pct</t>
   </si>
 </sst>
 </file>
@@ -1123,84 +1123,84 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>139</v>
+        <v>77</v>
       </c>
       <c r="B1" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E1" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>140</v>
+        <v>82</v>
       </c>
       <c r="B2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D2" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>141</v>
+        <v>83</v>
       </c>
       <c r="B3" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C3" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D3" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>143</v>
+        <v>93</v>
       </c>
       <c r="B5" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C5" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D5" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
         <v>57</v>
@@ -1208,206 +1208,206 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C6" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D6" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>145</v>
+        <v>101</v>
       </c>
       <c r="B7" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
       <c r="C7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C8" t="s">
-        <v>100</v>
+        <v>108</v>
       </c>
       <c r="D8" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="E8" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="C9" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="D9" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E9" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>148</v>
+        <v>116</v>
       </c>
       <c r="B10" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C10" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D10" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>149</v>
+        <v>121</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="E11" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>150</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D12" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="E12" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>151</v>
+        <v>131</v>
       </c>
       <c r="B13" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C13" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="D13" t="s">
-        <v>121</v>
+        <v>134</v>
       </c>
       <c r="E13" t="s">
-        <v>122</v>
+        <v>135</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>152</v>
+        <v>136</v>
       </c>
       <c r="B14" t="s">
-        <v>123</v>
+        <v>137</v>
       </c>
       <c r="C14" t="s">
-        <v>124</v>
+        <v>138</v>
       </c>
       <c r="D14" t="s">
-        <v>125</v>
+        <v>139</v>
       </c>
       <c r="E14" t="s">
-        <v>126</v>
+        <v>140</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="B15" t="s">
-        <v>127</v>
+        <v>142</v>
       </c>
       <c r="C15" t="s">
-        <v>128</v>
+        <v>143</v>
       </c>
       <c r="D15" t="s">
-        <v>129</v>
+        <v>144</v>
       </c>
       <c r="E15" t="s">
-        <v>130</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B16" t="s">
-        <v>131</v>
+        <v>147</v>
       </c>
       <c r="C16" t="s">
-        <v>132</v>
+        <v>148</v>
       </c>
       <c r="D16" t="s">
-        <v>133</v>
+        <v>149</v>
       </c>
       <c r="E16" t="s">
-        <v>134</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
+        <v>151</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>153</v>
+      </c>
+      <c r="D17" t="s">
+        <v>154</v>
+      </c>
+      <c r="E17" t="s">
         <v>155</v>
-      </c>
-      <c r="B17" t="s">
-        <v>135</v>
-      </c>
-      <c r="C17" t="s">
-        <v>136</v>
-      </c>
-      <c r="D17" t="s">
-        <v>137</v>
-      </c>
-      <c r="E17" t="s">
-        <v>138</v>
       </c>
     </row>
   </sheetData>

--- a/analysis/tables.xlsx
+++ b/analysis/tables.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="180">
   <si>
     <t xml:space="preserve">variable</t>
   </si>
@@ -160,6 +160,9 @@
     <t xml:space="preserve">station</t>
   </si>
   <si>
+    <t xml:space="preserve">n</t>
+  </si>
+  <si>
     <t xml:space="preserve">Observation period</t>
   </si>
   <si>
@@ -169,87 +172,93 @@
     <t xml:space="preserve">sl.gl</t>
   </si>
   <si>
-    <t xml:space="preserve">1 760</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16.7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">32.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-18</t>
-  </si>
-  <si>
-    <t xml:space="preserve">12.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-28</t>
+    <t xml:space="preserve">58</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 148.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">26.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">210</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-23 15:00:00 — 2017-08-24 05:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-07-07 06:00:00 — 2017-07-07 12:00:00</t>
   </si>
   <si>
     <t xml:space="preserve">sl.mid</t>
   </si>
   <si>
-    <t xml:space="preserve">2 480</t>
-  </si>
-  <si>
-    <t xml:space="preserve">48.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">40</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">221</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-08-23</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.8</t>
+    <t xml:space="preserve">2 168.2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">37.38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">32.62</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">220</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7</t>
   </si>
   <si>
     <t xml:space="preserve">sl.out</t>
   </si>
   <si>
-    <t xml:space="preserve">10 300</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10 500</t>
-  </si>
-  <si>
-    <t xml:space="preserve">92.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">257</t>
-  </si>
-  <si>
-    <t xml:space="preserve">36.6</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 110</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-01</t>
-  </si>
-  <si>
-    <t xml:space="preserve">10.2</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2017-09-19</t>
+    <t xml:space="preserve">135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 223.6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 408.07</t>
+  </si>
+  <si>
+    <t xml:space="preserve">68.32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">169.86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">30</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 800</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-08-31 22:00:00 — 2017-09-01 04:00:00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2017-06-06 09:00:00 — 2017-06-06 12:00:00</t>
   </si>
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">rn</t>
+  </si>
+  <si>
     <t xml:space="preserve">AW</t>
   </si>
   <si>
@@ -259,81 +268,108 @@
     <t xml:space="preserve">F8</t>
   </si>
   <si>
+    <t xml:space="preserve">NL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">136</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">n.pct</t>
+  </si>
+  <si>
+    <t xml:space="preserve">11.765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">61.765</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.147</t>
+  </si>
+  <si>
+    <t xml:space="preserve">21.324</t>
+  </si>
+  <si>
+    <t xml:space="preserve">100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.duration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">19.3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">20.34</t>
+  </si>
+  <si>
+    <t xml:space="preserve">22.286</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12.21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">18.534</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mean.lag</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.062</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-2.286</t>
+  </si>
+  <si>
     <t xml:space="preserve">NA</t>
   </si>
   <si>
-    <t xml:space="preserve">type</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n</t>
-  </si>
-  <si>
-    <t xml:space="preserve">16</t>
-  </si>
-  <si>
-    <t xml:space="preserve">84</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7</t>
-  </si>
-  <si>
-    <t xml:space="preserve">29</t>
-  </si>
-  <si>
-    <t xml:space="preserve">n.pct</t>
-  </si>
-  <si>
-    <t xml:space="preserve">11.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">61.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.15</t>
-  </si>
-  <si>
-    <t xml:space="preserve">21.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.duration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">19.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">20.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">22.3</t>
-  </si>
-  <si>
-    <t xml:space="preserve">mean.lag</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.06</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-2.29</t>
+    <t xml:space="preserve">-0.949</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5</t>
   </si>
   <si>
     <t xml:space="preserve">sd.lag</t>
   </si>
   <si>
-    <t xml:space="preserve">1.95</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.99</t>
+    <t xml:space="preserve">1.948</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.315</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.988</t>
   </si>
   <si>
     <t xml:space="preserve">NaN</t>
   </si>
   <si>
+    <t xml:space="preserve">0</t>
+  </si>
+  <si>
     <t xml:space="preserve">shi.mean</t>
   </si>
   <si>
@@ -343,16 +379,19 @@
     <t xml:space="preserve">0.134</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00663</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.0291</t>
+    <t xml:space="preserve">0.007</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.029</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.014</t>
   </si>
   <si>
     <t xml:space="preserve">shi.max</t>
   </si>
   <si>
-    <t xml:space="preserve">-0.000628</t>
+    <t xml:space="preserve">-0.001</t>
   </si>
   <si>
     <t xml:space="preserve">0.464</t>
@@ -364,13 +403,16 @@
     <t xml:space="preserve">0.516</t>
   </si>
   <si>
+    <t xml:space="preserve">8</t>
+  </si>
+  <si>
     <t xml:space="preserve">shi.min</t>
   </si>
   <si>
     <t xml:space="preserve">-0.597</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000839</t>
+    <t xml:space="preserve">0.001</t>
   </si>
   <si>
     <t xml:space="preserve">-0.117</t>
@@ -379,19 +421,28 @@
     <t xml:space="preserve">-0.508</t>
   </si>
   <si>
+    <t xml:space="preserve">9</t>
+  </si>
+  <si>
     <t xml:space="preserve">q.mean</t>
   </si>
   <si>
-    <t xml:space="preserve">1.65</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.32</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.66</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.47</t>
+    <t xml:space="preserve">1.646</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.322</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.657</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">10</t>
   </si>
   <si>
     <t xml:space="preserve">q.max</t>
@@ -409,19 +460,28 @@
     <t xml:space="preserve">2.7</t>
   </si>
   <si>
+    <t xml:space="preserve">11</t>
+  </si>
+  <si>
     <t xml:space="preserve">ssc.mean</t>
   </si>
   <si>
-    <t xml:space="preserve">668</t>
-  </si>
-  <si>
-    <t xml:space="preserve">548</t>
-  </si>
-  <si>
-    <t xml:space="preserve">347</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2 650</t>
+    <t xml:space="preserve">667.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">547.976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">347.143</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2 646.786</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 052.351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12</t>
   </si>
   <si>
     <t xml:space="preserve">ssc.max</t>
@@ -439,40 +499,52 @@
     <t xml:space="preserve">54 000</t>
   </si>
   <si>
+    <t xml:space="preserve">13</t>
+  </si>
+  <si>
     <t xml:space="preserve">sl.mean</t>
   </si>
   <si>
-    <t xml:space="preserve">82.8</t>
-  </si>
-  <si>
-    <t xml:space="preserve">52.5</t>
-  </si>
-  <si>
-    <t xml:space="preserve">50.9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">112</t>
+    <t xml:space="preserve">82.812</t>
+  </si>
+  <si>
+    <t xml:space="preserve">52.487</t>
+  </si>
+  <si>
+    <t xml:space="preserve">50.857</t>
+  </si>
+  <si>
+    <t xml:space="preserve">111.918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">74.519</t>
+  </si>
+  <si>
+    <t xml:space="preserve">14</t>
   </si>
   <si>
     <t xml:space="preserve">sl</t>
   </si>
   <si>
-    <t xml:space="preserve">1 320</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4 410</t>
+    <t xml:space="preserve">1 325</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4 408.9</t>
   </si>
   <si>
     <t xml:space="preserve">356</t>
   </si>
   <si>
-    <t xml:space="preserve">3 130</t>
+    <t xml:space="preserve">3 133.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">15</t>
   </si>
   <si>
     <t xml:space="preserve">sl.pct</t>
   </si>
   <si>
-    <t xml:space="preserve">14.4</t>
+    <t xml:space="preserve">14.365</t>
   </si>
   <si>
     <t xml:space="preserve">47.8</t>
@@ -481,7 +553,7 @@
     <t xml:space="preserve">3.86</t>
   </si>
   <si>
-    <t xml:space="preserve">34</t>
+    <t xml:space="preserve">33.975</t>
   </si>
 </sst>
 </file>
@@ -994,117 +1066,129 @@
         <v>49</v>
       </c>
       <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>6</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C2"/>
-      <c r="D2" t="s">
         <v>52</v>
       </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2"/>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="G2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>59</v>
+      </c>
+      <c r="K2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3"/>
+      <c r="E3" t="s">
+        <v>63</v>
+      </c>
+      <c r="F3" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>67</v>
+      </c>
+      <c r="K3" t="s">
         <v>60</v>
-      </c>
-      <c r="C3"/>
-      <c r="D3" t="s">
-        <v>61</v>
-      </c>
-      <c r="E3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G3" t="s">
-        <v>64</v>
-      </c>
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-      <c r="I3" t="s">
-        <v>66</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="G4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="H4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="I4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="J4" t="s">
-        <v>76</v>
+        <v>77</v>
+      </c>
+      <c r="K4" t="s">
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1123,291 +1207,370 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E1" t="s">
-        <v>81</v>
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>67</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+      <c r="G2" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>90</v>
       </c>
       <c r="B3" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="C3" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="D3" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="F3" t="s">
+        <v>95</v>
+      </c>
+      <c r="G3" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="C4" t="s">
-        <v>90</v>
+        <v>99</v>
       </c>
       <c r="D4" t="s">
-        <v>91</v>
+        <v>100</v>
       </c>
       <c r="E4" t="s">
-        <v>92</v>
+        <v>101</v>
+      </c>
+      <c r="F4" t="s">
+        <v>102</v>
+      </c>
+      <c r="G4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="B5" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
       <c r="C5" t="s">
-        <v>95</v>
+        <v>106</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E5" t="s">
-        <v>57</v>
+        <v>108</v>
+      </c>
+      <c r="F5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>97</v>
+        <v>111</v>
       </c>
       <c r="B6" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="C6" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="E6" t="s">
-        <v>81</v>
+        <v>115</v>
+      </c>
+      <c r="F6" t="s">
+        <v>116</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="B7" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="D7" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
       <c r="E7" t="s">
-        <v>105</v>
+        <v>121</v>
+      </c>
+      <c r="F7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G7" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>106</v>
+        <v>67</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="C8" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="E8" t="s">
-        <v>110</v>
+        <v>127</v>
+      </c>
+      <c r="F8" t="s">
+        <v>128</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>129</v>
       </c>
       <c r="B9" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="C9" t="s">
-        <v>113</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>133</v>
+      </c>
+      <c r="F9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G9" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>116</v>
+        <v>135</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>136</v>
       </c>
       <c r="C10" t="s">
-        <v>118</v>
+        <v>137</v>
       </c>
       <c r="D10" t="s">
-        <v>119</v>
+        <v>138</v>
       </c>
       <c r="E10" t="s">
-        <v>120</v>
+        <v>139</v>
+      </c>
+      <c r="F10" t="s">
+        <v>140</v>
+      </c>
+      <c r="G10" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>121</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>122</v>
+        <v>143</v>
       </c>
       <c r="C11" t="s">
-        <v>123</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>124</v>
+        <v>145</v>
       </c>
       <c r="E11" t="s">
-        <v>125</v>
+        <v>146</v>
+      </c>
+      <c r="F11" t="s">
+        <v>147</v>
+      </c>
+      <c r="G11" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>126</v>
+        <v>148</v>
       </c>
       <c r="B12" t="s">
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="C12" t="s">
-        <v>128</v>
+        <v>150</v>
       </c>
       <c r="D12" t="s">
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>130</v>
+        <v>152</v>
+      </c>
+      <c r="F12" t="s">
+        <v>153</v>
+      </c>
+      <c r="G12" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>131</v>
+        <v>155</v>
       </c>
       <c r="B13" t="s">
-        <v>132</v>
+        <v>156</v>
       </c>
       <c r="C13" t="s">
-        <v>133</v>
+        <v>157</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>158</v>
       </c>
       <c r="E13" t="s">
-        <v>135</v>
+        <v>159</v>
+      </c>
+      <c r="F13" t="s">
+        <v>160</v>
+      </c>
+      <c r="G13" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>136</v>
+        <v>161</v>
       </c>
       <c r="B14" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="C14" t="s">
-        <v>138</v>
+        <v>163</v>
       </c>
       <c r="D14" t="s">
-        <v>139</v>
+        <v>164</v>
       </c>
       <c r="E14" t="s">
-        <v>140</v>
+        <v>165</v>
+      </c>
+      <c r="F14" t="s">
+        <v>166</v>
+      </c>
+      <c r="G14" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>141</v>
+        <v>168</v>
       </c>
       <c r="B15" t="s">
-        <v>142</v>
+        <v>169</v>
       </c>
       <c r="C15" t="s">
-        <v>143</v>
+        <v>170</v>
       </c>
       <c r="D15" t="s">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E15" t="s">
-        <v>145</v>
+        <v>172</v>
+      </c>
+      <c r="F15" t="s">
+        <v>173</v>
+      </c>
+      <c r="G15" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>146</v>
+        <v>174</v>
       </c>
       <c r="B16" t="s">
-        <v>147</v>
+        <v>175</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>176</v>
       </c>
       <c r="D16" t="s">
-        <v>149</v>
+        <v>177</v>
       </c>
       <c r="E16" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s">
-        <v>151</v>
-      </c>
-      <c r="B17" t="s">
-        <v>152</v>
-      </c>
-      <c r="C17" t="s">
-        <v>153</v>
-      </c>
-      <c r="D17" t="s">
-        <v>154</v>
-      </c>
-      <c r="E17" t="s">
-        <v>155</v>
+        <v>178</v>
+      </c>
+      <c r="F16" t="s">
+        <v>179</v>
+      </c>
+      <c r="G16" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
